--- a/biology/Médecine/Clay_Armstrong/Clay_Armstrong.xlsx
+++ b/biology/Médecine/Clay_Armstrong/Clay_Armstrong.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Clay Margrave Armstrong (né en 1934[1]) est un physiologiste américain et un ancien élève d'Andrew Huxley.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Clay Margrave Armstrong (né en 1934) est un physiologiste américain et un ancien élève d'Andrew Huxley.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Armstrong obtient son doctorat en médecine de la Washington University School of Medicine en 1960. Il termine sa carrière comme professeur émérite de physiologie à l'Université de Pennsylvanie[2]. Il a également occupé des postes de professeur à l'Université Duke et à l'Université de Rochester.
-Armstrong reçoit le prix Prix Louisa-Gross-Horwitz de l'Université Columbia en 1996 et le Prix Albert-Lasker pour la recherche médicale fondamentale (partagé avec Bertil Hille et Roderick MacKinnon) en 1999[3], pour ses contributions fondamentales à notre compréhension des fonctions des ions pour canaliser les protéines dans les cellules nerveuses. Armstrong est élu à l'Académie nationale des sciences en 1987 et est élu membre de l'Académie américaine des arts et des sciences en 1999 [1]. Il remporte le Prix Gairdner en 2001[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Armstrong obtient son doctorat en médecine de la Washington University School of Medicine en 1960. Il termine sa carrière comme professeur émérite de physiologie à l'Université de Pennsylvanie. Il a également occupé des postes de professeur à l'Université Duke et à l'Université de Rochester.
+Armstrong reçoit le prix Prix Louisa-Gross-Horwitz de l'Université Columbia en 1996 et le Prix Albert-Lasker pour la recherche médicale fondamentale (partagé avec Bertil Hille et Roderick MacKinnon) en 1999, pour ses contributions fondamentales à notre compréhension des fonctions des ions pour canaliser les protéines dans les cellules nerveuses. Armstrong est élu à l'Académie nationale des sciences en 1987 et est élu membre de l'Académie américaine des arts et des sciences en 1999 . Il remporte le Prix Gairdner en 2001.
 Armstrong est marié à la scientifique Clara Franzini-Armstrong (en).
 </t>
         </is>
@@ -544,9 +558,11 @@
           <t>Idées et influence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une grande partie de la compréhension actuelle de la structure et de la fonction des canaux ioniques peut être attribuée à la notion proposée par Clay Armstrong (avec Bertil Hille). Armstrong fournit la première description générale du pore du canal ionique K+, notamment les idées fondamentales d'un filtre de sélectivité qui peut permettre le flux rapide de K+ tout en excluant le flux de Na+ à travers la membrane cellulaire ; un large vestibule intérieur; et un élément de déclenchement moléculaire du côté cytoplasmique du canal qui contrôle le flux d'ions à travers le pore[5]. De plus, les études d'Armstrong (avec Francisco Bezanilla (en)) décrivant la première mesure du mouvement de charge associé à l'activation des canaux ioniques sélectifs au Na+ jettent les bases de la compréhension actuelle de la base moléculaire de la signalisation électrique dans les cellules nerveuses et musculaires[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une grande partie de la compréhension actuelle de la structure et de la fonction des canaux ioniques peut être attribuée à la notion proposée par Clay Armstrong (avec Bertil Hille). Armstrong fournit la première description générale du pore du canal ionique K+, notamment les idées fondamentales d'un filtre de sélectivité qui peut permettre le flux rapide de K+ tout en excluant le flux de Na+ à travers la membrane cellulaire ; un large vestibule intérieur; et un élément de déclenchement moléculaire du côté cytoplasmique du canal qui contrôle le flux d'ions à travers le pore. De plus, les études d'Armstrong (avec Francisco Bezanilla (en)) décrivant la première mesure du mouvement de charge associé à l'activation des canaux ioniques sélectifs au Na+ jettent les bases de la compréhension actuelle de la base moléculaire de la signalisation électrique dans les cellules nerveuses et musculaires.
 </t>
         </is>
       </c>
